--- a/excel/FactorialAnalysis_meanbufferBigger.xlsx
+++ b/excel/FactorialAnalysis_meanbufferBigger.xlsx
@@ -1181,7 +1181,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1785,11 +1785,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91775466"/>
-        <c:axId val="47670886"/>
+        <c:axId val="79491550"/>
+        <c:axId val="44723019"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91775466"/>
+        <c:axId val="79491550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,12 +1831,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47670886"/>
+        <c:crossAx val="44723019"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47670886"/>
+        <c:axId val="44723019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1878,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91775466"/>
+        <c:crossAx val="79491550"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1906,7 +1906,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2494,11 +2494,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32339030"/>
-        <c:axId val="50487271"/>
+        <c:axId val="71159194"/>
+        <c:axId val="55434396"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32339030"/>
+        <c:axId val="71159194"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,12 +2540,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50487271"/>
+        <c:crossAx val="55434396"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50487271"/>
+        <c:axId val="55434396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32339030"/>
+        <c:crossAx val="71159194"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2615,7 +2615,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3208,11 +3208,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59704023"/>
-        <c:axId val="15819785"/>
+        <c:axId val="12062812"/>
+        <c:axId val="13882560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59704023"/>
+        <c:axId val="12062812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3240,12 +3240,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15819785"/>
+        <c:crossAx val="13882560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="15819785"/>
+        <c:axId val="13882560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,7 +3282,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59704023"/>
+        <c:crossAx val="12062812"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3330,7 +3330,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3894,11 +3894,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45237297"/>
-        <c:axId val="52311467"/>
+        <c:axId val="98347606"/>
+        <c:axId val="72184868"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45237297"/>
+        <c:axId val="98347606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3926,12 +3926,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52311467"/>
+        <c:crossAx val="72184868"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52311467"/>
+        <c:axId val="72184868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,7 +3968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45237297"/>
+        <c:crossAx val="98347606"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4148,7 +4148,7 @@
   </sheetPr>
   <dimension ref="B1:BA1420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D39" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S67" activeCellId="0" sqref="S67"/>
     </sheetView>
   </sheetViews>
